--- a/src/crispr_screen_viewer/tests/test_data/flat_style/details/test1.xlsx
+++ b/src/crispr_screen_viewer/tests/test_data/flat_style/details/test1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas03/python_projects/crispr_screen_viewer/src/crispr_screen_viewer/tests/test_data/exorcise_style/test1/re/det/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas03/python_projects/crispr_screen_viewer/src/crispr_screen_viewer/tests/test_data/flat_style/details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC34C49-598F-A943-AEB0-42AF71AF523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC8F1C-1F9B-5B48-9111-063F6859FC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="33500" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Library</t>
   </si>
@@ -302,12 +302,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>analysis_version</t>
-  </si>
-  <si>
-    <t>file_prefix</t>
-  </si>
-  <si>
     <t>Contrast</t>
   </si>
   <si>
@@ -329,9 +323,6 @@
     <t>these are notes</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>ctrlrep1</t>
   </si>
   <si>
@@ -426,9 +417,6 @@
   </si>
   <si>
     <t>test1</t>
-  </si>
-  <si>
-    <t>re/res</t>
   </si>
   <si>
     <t>Organism</t>
@@ -1499,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1516,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20">
@@ -1524,7 +1512,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20">
@@ -1532,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20">
@@ -1540,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20">
@@ -1548,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="40">
@@ -1556,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20">
@@ -1564,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20">
@@ -1572,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20">
@@ -1580,31 +1568,15 @@
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20">
-      <c r="A12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1677,101 +1649,101 @@
     </row>
     <row r="2" spans="1:12" ht="22" customHeight="1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1780,22 +1752,22 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1804,89 +1776,89 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1943,39 +1915,39 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1983,55 +1955,55 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -2095,62 +2067,62 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="11">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
